--- a/etc/Phân công.xlsx
+++ b/etc/Phân công.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Mã</t>
   </si>
@@ -102,6 +102,22 @@
   </si>
   <si>
     <t>http://www.independent-software.com/gmap-net-beginners-tutorial-maps-markers-polygons-routes-updated-for-visual-studio-2015-and-gmap-net-1-7/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Service viết trong folder của riêng từng người đã được tạo sẵn. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ko sửa service </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -195,46 +211,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,177 +573,179 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="15">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -733,6 +754,13 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
